--- a/Understanding_CEI_Sample.xlsx
+++ b/Understanding_CEI_Sample.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="40">
   <si>
     <t>output_created</t>
   </si>
@@ -804,7 +804,7 @@
         <v>68</v>
       </c>
       <c r="D2" s="1">
-        <v>64660705280</v>
+        <v>3.7000000476837158</v>
       </c>
     </row>
     <row r="3">
@@ -818,7 +818,7 @@
         <v>81</v>
       </c>
       <c r="D3" s="1">
-        <v>64738304000</v>
+        <v>4.8000001907348633</v>
       </c>
     </row>
     <row r="4">
@@ -832,7 +832,7 @@
         <v>66</v>
       </c>
       <c r="D4" s="1">
-        <v>64668176384</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="5">
@@ -846,7 +846,7 @@
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <v>64669290496</v>
+        <v>5.8000001907348633</v>
       </c>
     </row>
   </sheetData>

--- a/Understanding_CEI_Sample.xlsx
+++ b/Understanding_CEI_Sample.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yoonjoungchoi/Dropbox/0iSquared/iSquared_PMA/PMA_QoC_Followup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C5665B-94F0-3741-BD23-81FFCF01E34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C850F73E-07A7-D441-A3F6-FD154B05BCCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19620"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21480" windowHeight="19620" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -19,20 +19,31 @@
     <sheet name="Table3" sheetId="4" r:id="rId4"/>
     <sheet name="Table4" sheetId="5" r:id="rId5"/>
     <sheet name="Table5" sheetId="6" r:id="rId6"/>
+    <sheet name="Regression_ysatisfiedvery" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="true"/>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="39">
   <si>
     <t>output_created</t>
   </si>
   <si>
-    <t>29Nov2022</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -138,22 +149,19 @@
     <t>qcc__meaninteraction</t>
   </si>
   <si>
-    <t>1Dec2022</t>
-  </si>
-  <si>
     <t>pct_nomethod</t>
   </si>
   <si>
     <t>pct_hhladder_6higher</t>
+  </si>
+  <si>
+    <t>2Dec2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -187,10 +195,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -206,6 +213,217 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="A3" t="str">
+            <v/>
+          </cell>
+          <cell r="R3" t="str">
+            <v>M3_BFP2</v>
+          </cell>
+          <cell r="T3" t="str">
+            <v>M3_KEP2</v>
+          </cell>
+          <cell r="V3" t="str">
+            <v>M3_NGKanoP2</v>
+          </cell>
+          <cell r="X3" t="str">
+            <v>M3_NGLagosP2</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>very satisfied</v>
+          </cell>
+          <cell r="R6" t="str">
+            <v>1.88***</v>
+          </cell>
+          <cell r="T6" t="str">
+            <v>1.43***</v>
+          </cell>
+          <cell r="V6" t="str">
+            <v>1.31</v>
+          </cell>
+          <cell r="X6" t="str">
+            <v>0.94</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v/>
+          </cell>
+          <cell r="R7" t="str">
+            <v>(1.340 - 2.641)</v>
+          </cell>
+          <cell r="T7" t="str">
+            <v>(1.160 - 1.769)</v>
+          </cell>
+          <cell r="V7" t="str">
+            <v>(0.849 - 2.026)</v>
+          </cell>
+          <cell r="X7" t="str">
+            <v>(0.573 - 1.537)</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>client's age at interview</v>
+          </cell>
+          <cell r="R8" t="str">
+            <v>1.02</v>
+          </cell>
+          <cell r="T8" t="str">
+            <v>1.03***</v>
+          </cell>
+          <cell r="V8" t="str">
+            <v>1.00</v>
+          </cell>
+          <cell r="X8" t="str">
+            <v>1.03*</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v/>
+          </cell>
+          <cell r="R9" t="str">
+            <v>(0.996 - 1.040)</v>
+          </cell>
+          <cell r="T9" t="str">
+            <v>(1.019 - 1.047)</v>
+          </cell>
+          <cell r="V9" t="str">
+            <v>(0.973 - 1.024)</v>
+          </cell>
+          <cell r="X9" t="str">
+            <v>(0.999 - 1.067)</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>education secondary or higher</v>
+          </cell>
+          <cell r="R10" t="str">
+            <v>2.47***</v>
+          </cell>
+          <cell r="T10" t="str">
+            <v>2.21***</v>
+          </cell>
+          <cell r="V10" t="str">
+            <v>3.07***</v>
+          </cell>
+          <cell r="X10" t="str">
+            <v>2.12**</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v/>
+          </cell>
+          <cell r="R11" t="str">
+            <v>(1.759 - 3.472)</v>
+          </cell>
+          <cell r="T11" t="str">
+            <v>(1.832 - 2.675)</v>
+          </cell>
+          <cell r="V11" t="str">
+            <v>(2.031 - 4.633)</v>
+          </cell>
+          <cell r="X11" t="str">
+            <v>(1.104 - 4.074)</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>HH percceived economic ladder 5 or higher</v>
+          </cell>
+          <cell r="R14" t="str">
+            <v>1.18</v>
+          </cell>
+          <cell r="T14" t="str">
+            <v>1.18*</v>
+          </cell>
+          <cell r="V14" t="str">
+            <v>1.15</v>
+          </cell>
+          <cell r="X14" t="str">
+            <v>1.65**</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v/>
+          </cell>
+          <cell r="R15" t="str">
+            <v>(0.845 - 1.639)</v>
+          </cell>
+          <cell r="T15" t="str">
+            <v>(0.972 - 1.439)</v>
+          </cell>
+          <cell r="V15" t="str">
+            <v>(0.767 - 1.729)</v>
+          </cell>
+          <cell r="X15" t="str">
+            <v>(1.041 - 2.624)</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>Observations</v>
+          </cell>
+          <cell r="R19" t="str">
+            <v>903</v>
+          </cell>
+          <cell r="T19" t="str">
+            <v>4,114</v>
+          </cell>
+          <cell r="V19" t="str">
+            <v>695</v>
+          </cell>
+          <cell r="X19" t="str">
+            <v>495</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>Number of facility_ID</v>
+          </cell>
+          <cell r="R20" t="str">
+            <v>102</v>
+          </cell>
+          <cell r="T20" t="str">
+            <v>399</v>
+          </cell>
+          <cell r="V20" t="str">
+            <v>27</v>
+          </cell>
+          <cell r="X20" t="str">
+            <v>39</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>ciEform in parentheses</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>*** p&lt;0.01, ** p&lt;0.05, * p&lt;0.1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -507,58 +725,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="true" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -576,29 +794,29 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="8" width="10.83203125" customWidth="true"/>
+    <col min="1" max="8" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
       </c>
       <c r="C2" s="1">
         <v>221</v>
@@ -607,12 +825,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1">
         <v>207</v>
@@ -621,12 +839,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
         <v>14</v>
@@ -635,12 +853,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1">
         <v>838</v>
@@ -649,12 +867,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1">
         <v>740</v>
@@ -663,12 +881,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1">
         <v>98</v>
@@ -677,12 +895,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1">
         <v>47</v>
@@ -691,12 +909,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1">
         <v>30</v>
@@ -705,12 +923,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1">
         <v>17</v>
@@ -719,12 +937,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1">
         <v>92</v>
@@ -733,12 +951,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1">
         <v>62</v>
@@ -747,12 +965,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1">
         <v>30</v>
@@ -771,31 +989,31 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="8" width="10.83203125" customWidth="true"/>
+    <col min="1" max="8" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>10</v>
       </c>
       <c r="B2" s="1">
         <v>903</v>
@@ -807,9 +1025,9 @@
         <v>3.7000000476837158</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
         <v>4115</v>
@@ -821,9 +1039,9 @@
         <v>4.8000001907348633</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
         <v>695</v>
@@ -835,9 +1053,9 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1">
         <v>509</v>
@@ -864,35 +1082,35 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="8" width="10.83203125" customWidth="true"/>
+    <col min="1" max="8" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1">
         <v>6222</v>
@@ -913,9 +1131,9 @@
         <v>76.300003051757812</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>903</v>
@@ -936,9 +1154,9 @@
         <v>68.300003051757812</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1">
         <v>4115</v>
@@ -959,9 +1177,9 @@
         <v>80.599998474121094</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1">
         <v>695</v>
@@ -982,9 +1200,9 @@
         <v>66.5</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1">
         <v>509</v>
@@ -1020,41 +1238,41 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="8" width="10.83203125" customWidth="true"/>
+    <col min="1" max="8" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>10</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -1081,9 +1299,9 @@
         <v>59.400001525878906</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -1110,9 +1328,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -1139,9 +1357,9 @@
         <v>69.900001525878906</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -1168,9 +1386,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -1197,9 +1415,9 @@
         <v>34.299999237060547</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -1226,9 +1444,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -1255,9 +1473,9 @@
         <v>67.099998474121094</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -1299,35 +1517,35 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="8" width="10.83203125" customWidth="true"/>
+    <col min="1" max="8" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>10</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -1348,9 +1566,9 @@
         <v>3.1600000858306885</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -1371,9 +1589,9 @@
         <v>3.2100000381469727</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -1394,9 +1612,9 @@
         <v>3.2999999523162842</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -1417,9 +1635,9 @@
         <v>3.3399999141693115</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -1440,9 +1658,9 @@
         <v>3.2400000095367432</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -1463,9 +1681,9 @@
         <v>3.2799999713897705</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -1486,9 +1704,9 @@
         <v>3.5699999332427979</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -1507,6 +1725,278 @@
       </c>
       <c r="G9" s="1">
         <v>3.5699999332427979</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E58879-4718-F548-AC45-52C371A7AFC7}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="5" width="18.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="str">
+        <f>[1]Sheet1!A3</f>
+        <v/>
+      </c>
+      <c r="B1" t="str">
+        <f>[1]Sheet1!R3</f>
+        <v>M3_BFP2</v>
+      </c>
+      <c r="C1" t="str">
+        <f>[1]Sheet1!T3</f>
+        <v>M3_KEP2</v>
+      </c>
+      <c r="D1" t="str">
+        <f>[1]Sheet1!V3</f>
+        <v>M3_NGKanoP2</v>
+      </c>
+      <c r="E1" t="str">
+        <f>[1]Sheet1!X3</f>
+        <v>M3_NGLagosP2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>[1]Sheet1!A6</f>
+        <v>very satisfied</v>
+      </c>
+      <c r="B2" t="str">
+        <f>[1]Sheet1!R6</f>
+        <v>1.88***</v>
+      </c>
+      <c r="C2" t="str">
+        <f>[1]Sheet1!T6</f>
+        <v>1.43***</v>
+      </c>
+      <c r="D2" t="str">
+        <f>[1]Sheet1!V6</f>
+        <v>1.31</v>
+      </c>
+      <c r="E2" t="str">
+        <f>[1]Sheet1!X6</f>
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f>[1]Sheet1!A7</f>
+        <v/>
+      </c>
+      <c r="B3" t="str">
+        <f>[1]Sheet1!R7</f>
+        <v>(1.340 - 2.641)</v>
+      </c>
+      <c r="C3" t="str">
+        <f>[1]Sheet1!T7</f>
+        <v>(1.160 - 1.769)</v>
+      </c>
+      <c r="D3" t="str">
+        <f>[1]Sheet1!V7</f>
+        <v>(0.849 - 2.026)</v>
+      </c>
+      <c r="E3" t="str">
+        <f>[1]Sheet1!X7</f>
+        <v>(0.573 - 1.537)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f>[1]Sheet1!A8</f>
+        <v>client's age at interview</v>
+      </c>
+      <c r="B4" t="str">
+        <f>[1]Sheet1!R8</f>
+        <v>1.02</v>
+      </c>
+      <c r="C4" t="str">
+        <f>[1]Sheet1!T8</f>
+        <v>1.03***</v>
+      </c>
+      <c r="D4" t="str">
+        <f>[1]Sheet1!V8</f>
+        <v>1.00</v>
+      </c>
+      <c r="E4" t="str">
+        <f>[1]Sheet1!X8</f>
+        <v>1.03*</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f>[1]Sheet1!A9</f>
+        <v/>
+      </c>
+      <c r="B5" t="str">
+        <f>[1]Sheet1!R9</f>
+        <v>(0.996 - 1.040)</v>
+      </c>
+      <c r="C5" t="str">
+        <f>[1]Sheet1!T9</f>
+        <v>(1.019 - 1.047)</v>
+      </c>
+      <c r="D5" t="str">
+        <f>[1]Sheet1!V9</f>
+        <v>(0.973 - 1.024)</v>
+      </c>
+      <c r="E5" t="str">
+        <f>[1]Sheet1!X9</f>
+        <v>(0.999 - 1.067)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="str">
+        <f>[1]Sheet1!A10</f>
+        <v>education secondary or higher</v>
+      </c>
+      <c r="B6" t="str">
+        <f>[1]Sheet1!R10</f>
+        <v>2.47***</v>
+      </c>
+      <c r="C6" t="str">
+        <f>[1]Sheet1!T10</f>
+        <v>2.21***</v>
+      </c>
+      <c r="D6" t="str">
+        <f>[1]Sheet1!V10</f>
+        <v>3.07***</v>
+      </c>
+      <c r="E6" t="str">
+        <f>[1]Sheet1!X10</f>
+        <v>2.12**</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="str">
+        <f>[1]Sheet1!A11</f>
+        <v/>
+      </c>
+      <c r="B7" t="str">
+        <f>[1]Sheet1!R11</f>
+        <v>(1.759 - 3.472)</v>
+      </c>
+      <c r="C7" t="str">
+        <f>[1]Sheet1!T11</f>
+        <v>(1.832 - 2.675)</v>
+      </c>
+      <c r="D7" t="str">
+        <f>[1]Sheet1!V11</f>
+        <v>(2.031 - 4.633)</v>
+      </c>
+      <c r="E7" t="str">
+        <f>[1]Sheet1!X11</f>
+        <v>(1.104 - 4.074)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="str">
+        <f>[1]Sheet1!A14</f>
+        <v>HH percceived economic ladder 5 or higher</v>
+      </c>
+      <c r="B8" t="str">
+        <f>[1]Sheet1!R14</f>
+        <v>1.18</v>
+      </c>
+      <c r="C8" t="str">
+        <f>[1]Sheet1!T14</f>
+        <v>1.18*</v>
+      </c>
+      <c r="D8" t="str">
+        <f>[1]Sheet1!V14</f>
+        <v>1.15</v>
+      </c>
+      <c r="E8" t="str">
+        <f>[1]Sheet1!X14</f>
+        <v>1.65**</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="str">
+        <f>[1]Sheet1!A15</f>
+        <v/>
+      </c>
+      <c r="B9" t="str">
+        <f>[1]Sheet1!R15</f>
+        <v>(0.845 - 1.639)</v>
+      </c>
+      <c r="C9" t="str">
+        <f>[1]Sheet1!T15</f>
+        <v>(0.972 - 1.439)</v>
+      </c>
+      <c r="D9" t="str">
+        <f>[1]Sheet1!V15</f>
+        <v>(0.767 - 1.729)</v>
+      </c>
+      <c r="E9" t="str">
+        <f>[1]Sheet1!X15</f>
+        <v>(1.041 - 2.624)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="str">
+        <f>[1]Sheet1!A19</f>
+        <v>Observations</v>
+      </c>
+      <c r="B10" t="str">
+        <f>[1]Sheet1!R19</f>
+        <v>903</v>
+      </c>
+      <c r="C10" t="str">
+        <f>[1]Sheet1!T19</f>
+        <v>4,114</v>
+      </c>
+      <c r="D10" t="str">
+        <f>[1]Sheet1!V19</f>
+        <v>695</v>
+      </c>
+      <c r="E10" t="str">
+        <f>[1]Sheet1!X19</f>
+        <v>495</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="str">
+        <f>[1]Sheet1!A20</f>
+        <v>Number of facility_ID</v>
+      </c>
+      <c r="B11" t="str">
+        <f>[1]Sheet1!R20</f>
+        <v>102</v>
+      </c>
+      <c r="C11" t="str">
+        <f>[1]Sheet1!T20</f>
+        <v>399</v>
+      </c>
+      <c r="D11" t="str">
+        <f>[1]Sheet1!V20</f>
+        <v>27</v>
+      </c>
+      <c r="E11" t="str">
+        <f>[1]Sheet1!X20</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
+        <f>[1]Sheet1!A21</f>
+        <v>ciEform in parentheses</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="str">
+        <f>[1]Sheet1!A22</f>
+        <v>*** p&lt;0.01, ** p&lt;0.05, * p&lt;0.1</v>
       </c>
     </row>
   </sheetData>
